--- a/point_input.xlsx
+++ b/point_input.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>事件英文变量名</t>
   </si>
@@ -145,18 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件属性注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinshi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐私1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,52 +156,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yinshi2</t>
-  </si>
-  <si>
-    <t>隐私2</t>
-  </si>
-  <si>
-    <t>类型1
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件名注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件属性注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字注释2</t>
+  </si>
+  <si>
+    <t>名字注释3</t>
+  </si>
+  <si>
+    <t>名字注释4</t>
+  </si>
+  <si>
+    <t>名字注释5</t>
+  </si>
+  <si>
+    <t>Yinshi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yinshi2</t>
+  </si>
+  <si>
+    <t>Yinshi3</t>
+  </si>
+  <si>
+    <t>Yinshi4</t>
+  </si>
+  <si>
+    <t>Yinshi5</t>
+  </si>
+  <si>
+    <t>名字注释1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型2
 1
 2
 4</t>
-  </si>
-  <si>
-    <t>yinshi3</t>
-  </si>
-  <si>
-    <t>隐私3</t>
-  </si>
-  <si>
-    <t>类型1
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型3
 1
 2
 5</t>
-  </si>
-  <si>
-    <t>yinshi4</t>
-  </si>
-  <si>
-    <t>隐私4</t>
-  </si>
-  <si>
-    <t>类型1
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型4
 1
 2
 6</t>
-  </si>
-  <si>
-    <t>yinshi5</t>
-  </si>
-  <si>
-    <t>隐私5</t>
-  </si>
-  <si>
-    <t>类型1
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型5
 1
 2
 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -293,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -381,13 +409,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,22 +458,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="181.5">
+    <row r="2" spans="1:5" ht="99">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -753,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="181.5">
+    <row r="3" spans="1:5" ht="99">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -770,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="181.5">
+    <row r="4" spans="1:5" ht="99">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -787,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="181.5">
+    <row r="5" spans="1:5" ht="99">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -804,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="181.5">
+    <row r="6" spans="1:5" ht="99">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -821,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="181.5">
+    <row r="7" spans="1:5" ht="99">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -838,7 +899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="181.5">
+    <row r="8" spans="1:5" ht="99">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -855,46 +916,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="148.5">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="66">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="82.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:5" ht="66">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -910,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -929,102 +990,127 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="66">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="66">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="66">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="66">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="66">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="66">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/point_input.xlsx
+++ b/point_input.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,120 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>事件英文变量名</t>
   </si>
   <si>
-    <t>事件显示名</t>
-  </si>
-  <si>
     <t>属性英文变量名</t>
-  </si>
-  <si>
-    <t>事件属性显示名</t>
-  </si>
-  <si>
-    <t>属性值说明</t>
-  </si>
-  <si>
-    <t>FundHoldingDetails</t>
-  </si>
-  <si>
-    <t>基金持仓详情页展示</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>业务种类</t>
-  </si>
-  <si>
-    <t>使用参数代表各业务——
-01：货基
-02：股基
-03：债基
-04：混合基
-05：其他（后续扩展）</t>
-  </si>
-  <si>
-    <t>AutoInvestClick</t>
-  </si>
-  <si>
-    <t>点击定投按钮</t>
-  </si>
-  <si>
-    <t>RedemptionClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击赎回按钮</t>
-  </si>
-  <si>
-    <t>HoldingDetailsBuyClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击买入按钮</t>
-  </si>
-  <si>
-    <t>RedemptionRecallPop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击赎回后的回捞弹窗展示</t>
-  </si>
-  <si>
-    <t>RecallPopCancelClick</t>
-  </si>
-  <si>
-    <t>回捞弹窗暂不卖出按钮点击</t>
-  </si>
-  <si>
-    <t>RecallPopNextClick</t>
-  </si>
-  <si>
-    <t>回捞弹窗立即卖出按钮点击</t>
-  </si>
-  <si>
-    <t>LogReportZip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志打包生成压缩文件结果</t>
-  </si>
-  <si>
-    <t>errorType</t>
-  </si>
-  <si>
-    <t>原因类型</t>
-  </si>
-  <si>
-    <t>流程是否成功&amp;&amp;失败原因：
-0：成功
-1：创建上报文件夹目录失败
-2：生成压缩文件失败</t>
-  </si>
-  <si>
-    <t>reportType</t>
-  </si>
-  <si>
-    <t>日志种类</t>
-  </si>
-  <si>
-    <t>要获取的日志种类：
-1：WORK
-2：ALL
-3：CRASH</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>日志大小</t>
-  </si>
-  <si>
-    <t>日志大小，单位M</t>
   </si>
   <si>
     <t>属性值说明</t>
@@ -295,7 +186,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,18 +201,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6CDEFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -359,58 +244,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDADBDA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDADBDA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDADBDA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDADBDA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDADBDA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDADBDA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDADBDA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDADBDA"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDADBDA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDADBDA"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFDADBDA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -439,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,31 +291,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,216 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="99">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="99">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="99">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="99">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="99">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="99">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="99">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="66">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="66">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -990,106 +602,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="66">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="66">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="66">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="66">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5">
